--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc108_SWT_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc108_SWT_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2008" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -506,10 +518,10 @@
       <c r="I13">
         <f>((C13-C12)^2+(D13- D12)^2)^.5</f>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="2" t="s">
+      <c r="J13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L13" t="n">
@@ -553,28 +565,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="2">
+      <c r="A15" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B15" t="s" s="2">
+      <c r="B15" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C15" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s" s="2">
+      <c r="C15" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E15" t="s" s="2">
+      <c r="E15" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F15" t="s" s="2">
+      <c r="F15" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G15" t="s" s="2">
+      <c r="G15" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H15" t="s" s="2">
+      <c r="H15" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -599,28 +611,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="B17" t="s" s="2">
+      <c r="B17" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C17" t="s" s="2">
+      <c r="C17" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D17" t="s" s="2">
+      <c r="D17" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E17" t="s" s="2">
+      <c r="E17" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="F17" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G17" t="s" s="2">
+      <c r="G17" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H17" t="s" s="2">
+      <c r="H17" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I17" t="s" s="2">
+      <c r="I17" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -737,10 +749,10 @@
       <c r="I21">
         <f>((C21-C20)^2+(D21- D20)^2)^.5</f>
       </c>
-      <c r="J21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K21" s="2" t="s">
+      <c r="J21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L21" t="n">
@@ -784,28 +796,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="2">
+      <c r="A23" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B23" t="s" s="2">
+      <c r="B23" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C23" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D23" t="s" s="2">
+      <c r="C23" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E23" t="s" s="2">
+      <c r="E23" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="F23" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G23" t="s" s="2">
+      <c r="G23" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H23" t="s" s="2">
+      <c r="H23" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -830,28 +842,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="B25" t="s" s="2">
+      <c r="B25" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C25" t="s" s="2">
+      <c r="C25" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D25" t="s" s="2">
+      <c r="D25" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E25" t="s" s="2">
+      <c r="E25" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F25" t="s" s="2">
+      <c r="F25" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G25" t="s" s="2">
+      <c r="G25" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H25" t="s" s="2">
+      <c r="H25" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I25" t="s" s="2">
+      <c r="I25" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -968,10 +980,10 @@
       <c r="I29">
         <f>((C29-C28)^2+(D29- D28)^2)^.5</f>
       </c>
-      <c r="J29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" s="2" t="s">
+      <c r="J29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L29" t="n">
@@ -1015,28 +1027,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s" s="2">
+      <c r="A31" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B31" t="s" s="2">
+      <c r="B31" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C31" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D31" t="s" s="2">
+      <c r="C31" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E31" t="s" s="2">
+      <c r="E31" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="F31" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G31" t="s" s="2">
+      <c r="G31" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H31" t="s" s="2">
+      <c r="H31" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1061,28 +1073,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33" t="s" s="2">
+      <c r="B33" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C33" t="s" s="2">
+      <c r="C33" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D33" t="s" s="2">
+      <c r="D33" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E33" t="s" s="2">
+      <c r="E33" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="F33" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G33" t="s" s="2">
+      <c r="G33" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H33" t="s" s="2">
+      <c r="H33" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I33" t="s" s="2">
+      <c r="I33" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1315,10 +1327,10 @@
       <c r="I41">
         <f>((C41-C40)^2+(D41- D40)^2)^.5</f>
       </c>
-      <c r="J41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K41" s="2" t="s">
+      <c r="J41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K41" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L41" t="n">
@@ -1362,28 +1374,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="2">
+      <c r="A43" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B43" t="s" s="2">
+      <c r="B43" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C43" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D43" t="s" s="2">
+      <c r="C43" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D43" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E43" t="s" s="2">
+      <c r="E43" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F43" t="s" s="2">
+      <c r="F43" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G43" t="s" s="2">
+      <c r="G43" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H43" t="s" s="2">
+      <c r="H43" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1408,28 +1420,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="B45" t="s" s="2">
+      <c r="B45" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C45" t="s" s="2">
+      <c r="C45" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D45" t="s" s="2">
+      <c r="D45" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E45" t="s" s="2">
+      <c r="E45" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="F45" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G45" t="s" s="2">
+      <c r="G45" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H45" t="s" s="2">
+      <c r="H45" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I45" t="s" s="2">
+      <c r="I45" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1633,10 +1645,10 @@
       <c r="I52">
         <f>((C52-C51)^2+(D52- D51)^2)^.5</f>
       </c>
-      <c r="J52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K52" s="2" t="s">
+      <c r="J52" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K52" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L52" t="n">
@@ -1680,28 +1692,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s" s="2">
+      <c r="A54" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B54" t="s" s="2">
+      <c r="B54" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C54" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D54" t="s" s="2">
+      <c r="C54" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D54" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E54" t="s" s="2">
+      <c r="E54" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F54" t="s" s="2">
+      <c r="F54" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G54" t="s" s="2">
+      <c r="G54" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H54" t="s" s="2">
+      <c r="H54" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1726,28 +1738,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="B56" t="s" s="2">
+      <c r="B56" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C56" t="s" s="2">
+      <c r="C56" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D56" t="s" s="2">
+      <c r="D56" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E56" t="s" s="2">
+      <c r="E56" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F56" t="s" s="2">
+      <c r="F56" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G56" t="s" s="2">
+      <c r="G56" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H56" t="s" s="2">
+      <c r="H56" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I56" t="s" s="2">
+      <c r="I56" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1864,10 +1876,10 @@
       <c r="I60">
         <f>((C60-C59)^2+(D60- D59)^2)^.5</f>
       </c>
-      <c r="J60" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K60" s="2" t="s">
+      <c r="J60" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K60" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L60" t="n">
@@ -1911,28 +1923,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="s" s="2">
+      <c r="A62" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B62" t="s" s="2">
+      <c r="B62" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C62" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D62" t="s" s="2">
+      <c r="C62" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D62" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E62" t="s" s="2">
+      <c r="E62" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F62" t="s" s="2">
+      <c r="F62" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G62" t="s" s="2">
+      <c r="G62" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H62" t="s" s="2">
+      <c r="H62" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1957,28 +1969,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="B64" t="s" s="2">
+      <c r="B64" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C64" t="s" s="2">
+      <c r="C64" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D64" t="s" s="2">
+      <c r="D64" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E64" t="s" s="2">
+      <c r="E64" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F64" t="s" s="2">
+      <c r="F64" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G64" t="s" s="2">
+      <c r="G64" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H64" t="s" s="2">
+      <c r="H64" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I64" t="s" s="2">
+      <c r="I64" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2269,10 +2281,10 @@
       <c r="I74">
         <f>((C74-C73)^2+(D74- D73)^2)^.5</f>
       </c>
-      <c r="J74" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K74" s="2" t="s">
+      <c r="J74" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K74" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L74" t="n">
@@ -2316,28 +2328,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s" s="2">
+      <c r="A76" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C76" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D76" t="s" s="2">
+      <c r="C76" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D76" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2362,28 +2374,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="B78" t="s" s="2">
+      <c r="B78" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C78" t="s" s="2">
+      <c r="C78" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D78" t="s" s="2">
+      <c r="D78" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E78" t="s" s="2">
+      <c r="E78" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F78" t="s" s="2">
+      <c r="F78" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G78" t="s" s="2">
+      <c r="G78" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H78" t="s" s="2">
+      <c r="H78" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I78" t="s" s="2">
+      <c r="I78" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2500,10 +2512,10 @@
       <c r="I82">
         <f>((C82-C81)^2+(D82- D81)^2)^.5</f>
       </c>
-      <c r="J82" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K82" s="2" t="s">
+      <c r="J82" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K82" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L82" t="n">
@@ -2547,28 +2559,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="s" s="2">
+      <c r="A84" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B84" t="s" s="2">
+      <c r="B84" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C84" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D84" t="s" s="2">
+      <c r="C84" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E84" t="s" s="2">
+      <c r="E84" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F84" t="s" s="2">
+      <c r="F84" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G84" t="s" s="2">
+      <c r="G84" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H84" t="s" s="2">
+      <c r="H84" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2593,28 +2605,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C86" t="s" s="2">
+      <c r="C86" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D86" t="s" s="2">
+      <c r="D86" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I86" t="s" s="2">
+      <c r="I86" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2818,10 +2830,10 @@
       <c r="I93">
         <f>((C93-C92)^2+(D93- D92)^2)^.5</f>
       </c>
-      <c r="J93" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K93" s="2" t="s">
+      <c r="J93" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K93" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L93" t="n">
@@ -2865,28 +2877,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="s" s="2">
+      <c r="A95" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B95" t="s" s="2">
+      <c r="B95" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C95" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D95" t="s" s="2">
+      <c r="C95" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D95" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E95" t="s" s="2">
+      <c r="E95" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F95" t="s" s="2">
+      <c r="F95" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G95" t="s" s="2">
+      <c r="G95" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H95" t="s" s="2">
+      <c r="H95" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2911,28 +2923,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="B97" t="s" s="2">
+      <c r="B97" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C97" t="s" s="2">
+      <c r="C97" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D97" t="s" s="2">
+      <c r="D97" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E97" t="s" s="2">
+      <c r="E97" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F97" t="s" s="2">
+      <c r="F97" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G97" t="s" s="2">
+      <c r="G97" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H97" t="s" s="2">
+      <c r="H97" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I97" t="s" s="2">
+      <c r="I97" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3107,10 +3119,10 @@
       <c r="I103">
         <f>((C103-C102)^2+(D103- D102)^2)^.5</f>
       </c>
-      <c r="J103" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K103" s="2" t="s">
+      <c r="J103" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K103" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L103" t="n">
@@ -3154,28 +3166,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="s" s="2">
+      <c r="A105" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B105" t="s" s="2">
+      <c r="B105" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C105" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D105" t="s" s="2">
+      <c r="C105" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D105" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E105" t="s" s="2">
+      <c r="E105" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F105" t="s" s="2">
+      <c r="F105" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G105" t="s" s="2">
+      <c r="G105" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H105" t="s" s="2">
+      <c r="H105" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3200,28 +3212,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="B107" t="s" s="2">
+      <c r="B107" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C107" t="s" s="2">
+      <c r="C107" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D107" t="s" s="2">
+      <c r="D107" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E107" t="s" s="2">
+      <c r="E107" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F107" t="s" s="2">
+      <c r="F107" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G107" t="s" s="2">
+      <c r="G107" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H107" t="s" s="2">
+      <c r="H107" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I107" t="s" s="2">
+      <c r="I107" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3367,10 +3379,10 @@
       <c r="I112">
         <f>((C112-C111)^2+(D112- D111)^2)^.5</f>
       </c>
-      <c r="J112" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K112" s="2" t="s">
+      <c r="J112" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K112" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L112" t="n">
@@ -3414,28 +3426,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="s" s="2">
+      <c r="A114" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B114" t="s" s="2">
+      <c r="B114" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C114" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D114" t="s" s="2">
+      <c r="C114" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E114" t="s" s="2">
+      <c r="E114" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F114" t="s" s="2">
+      <c r="F114" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G114" t="s" s="2">
+      <c r="G114" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H114" t="s" s="2">
+      <c r="H114" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3460,28 +3472,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C116" t="s" s="2">
+      <c r="C116" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D116" t="s" s="2">
+      <c r="D116" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I116" t="s" s="2">
+      <c r="I116" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3656,10 +3668,10 @@
       <c r="I122">
         <f>((C122-C121)^2+(D122- D121)^2)^.5</f>
       </c>
-      <c r="J122" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K122" s="2" t="s">
+      <c r="J122" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K122" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L122" t="n">
@@ -3703,28 +3715,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="s" s="2">
+      <c r="A124" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C124" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D124" t="s" s="2">
+      <c r="C124" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D124" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3749,28 +3761,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C126" t="s" s="2">
+      <c r="C126" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D126" t="s" s="2">
+      <c r="D126" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I126" t="s" s="2">
+      <c r="I126" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3974,10 +3986,10 @@
       <c r="I133">
         <f>((C133-C132)^2+(D133- D132)^2)^.5</f>
       </c>
-      <c r="J133" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K133" s="2" t="s">
+      <c r="J133" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K133" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L133" t="n">
@@ -4021,28 +4033,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s" s="2">
+      <c r="A135" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C135" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D135" t="s" s="2">
+      <c r="C135" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D135" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4067,28 +4079,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C137" t="s" s="2">
+      <c r="C137" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D137" t="s" s="2">
+      <c r="D137" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I137" t="s" s="2">
+      <c r="I137" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4263,10 +4275,10 @@
       <c r="I143">
         <f>((C143-C142)^2+(D143- D142)^2)^.5</f>
       </c>
-      <c r="J143" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K143" s="2" t="s">
+      <c r="J143" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K143" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L143" t="n">
@@ -4310,28 +4322,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="s" s="2">
+      <c r="A145" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B145" t="s" s="2">
+      <c r="B145" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C145" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D145" t="s" s="2">
+      <c r="C145" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D145" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E145" t="s" s="2">
+      <c r="E145" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F145" t="s" s="2">
+      <c r="F145" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G145" t="s" s="2">
+      <c r="G145" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H145" t="s" s="2">
+      <c r="H145" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4356,28 +4368,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="B147" t="s" s="2">
+      <c r="B147" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C147" t="s" s="2">
+      <c r="C147" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D147" t="s" s="2">
+      <c r="D147" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E147" t="s" s="2">
+      <c r="E147" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F147" t="s" s="2">
+      <c r="F147" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G147" t="s" s="2">
+      <c r="G147" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H147" t="s" s="2">
+      <c r="H147" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I147" t="s" s="2">
+      <c r="I147" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4610,10 +4622,10 @@
       <c r="I155">
         <f>((C155-C154)^2+(D155- D154)^2)^.5</f>
       </c>
-      <c r="J155" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K155" s="2" t="s">
+      <c r="J155" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K155" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L155" t="n">
@@ -4657,28 +4669,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="s" s="2">
+      <c r="A157" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B157" t="s" s="2">
+      <c r="B157" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C157" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D157" t="s" s="2">
+      <c r="C157" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D157" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E157" t="s" s="2">
+      <c r="E157" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F157" t="s" s="2">
+      <c r="F157" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G157" t="s" s="2">
+      <c r="G157" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H157" t="s" s="2">
+      <c r="H157" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4703,28 +4715,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C159" t="s" s="2">
+      <c r="C159" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D159" t="s" s="2">
+      <c r="D159" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I159" t="s" s="2">
+      <c r="I159" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4899,10 +4911,10 @@
       <c r="I165">
         <f>((C165-C164)^2+(D165- D164)^2)^.5</f>
       </c>
-      <c r="J165" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K165" s="2" t="s">
+      <c r="J165" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K165" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L165" t="n">
@@ -4946,28 +4958,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="s" s="2">
+      <c r="A167" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B167" t="s" s="2">
+      <c r="B167" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C167" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D167" t="s" s="2">
+      <c r="C167" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D167" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E167" t="s" s="2">
+      <c r="E167" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F167" t="s" s="2">
+      <c r="F167" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G167" t="s" s="2">
+      <c r="G167" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H167" t="s" s="2">
+      <c r="H167" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4992,28 +5004,28 @@
       </c>
     </row>
     <row r="169">
-      <c r="B169" t="s" s="2">
+      <c r="B169" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C169" t="s" s="2">
+      <c r="C169" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D169" t="s" s="2">
+      <c r="D169" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E169" t="s" s="2">
+      <c r="E169" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F169" t="s" s="2">
+      <c r="F169" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G169" t="s" s="2">
+      <c r="G169" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H169" t="s" s="2">
+      <c r="H169" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I169" t="s" s="2">
+      <c r="I169" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5217,10 +5229,10 @@
       <c r="I176">
         <f>((C176-C175)^2+(D176- D175)^2)^.5</f>
       </c>
-      <c r="J176" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K176" s="2" t="s">
+      <c r="J176" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K176" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L176" t="n">
@@ -5264,28 +5276,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="s" s="2">
+      <c r="A178" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B178" t="s" s="2">
+      <c r="B178" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C178" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D178" t="s" s="2">
+      <c r="C178" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E178" t="s" s="2">
+      <c r="E178" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F178" t="s" s="2">
+      <c r="F178" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G178" t="s" s="2">
+      <c r="G178" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H178" t="s" s="2">
+      <c r="H178" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5310,28 +5322,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="B180" t="s" s="2">
+      <c r="B180" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C180" t="s" s="2">
+      <c r="C180" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D180" t="s" s="2">
+      <c r="D180" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E180" t="s" s="2">
+      <c r="E180" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F180" t="s" s="2">
+      <c r="F180" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G180" t="s" s="2">
+      <c r="G180" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H180" t="s" s="2">
+      <c r="H180" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I180" t="s" s="2">
+      <c r="I180" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5390,10 +5402,10 @@
       <c r="I182">
         <f>((C182-C181)^2+(D182- D181)^2)^.5</f>
       </c>
-      <c r="J182" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K182" s="2" t="s">
+      <c r="J182" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K182" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L182" t="n">
@@ -5437,28 +5449,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="s" s="2">
+      <c r="A184" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B184" t="s" s="2">
+      <c r="B184" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C184" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D184" t="s" s="2">
+      <c r="C184" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D184" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E184" t="s" s="2">
+      <c r="E184" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F184" t="s" s="2">
+      <c r="F184" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G184" t="s" s="2">
+      <c r="G184" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H184" t="s" s="2">
+      <c r="H184" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5483,28 +5495,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="B186" t="s" s="2">
+      <c r="B186" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C186" t="s" s="2">
+      <c r="C186" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D186" t="s" s="2">
+      <c r="D186" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E186" t="s" s="2">
+      <c r="E186" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F186" t="s" s="2">
+      <c r="F186" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G186" t="s" s="2">
+      <c r="G186" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H186" t="s" s="2">
+      <c r="H186" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I186" t="s" s="2">
+      <c r="I186" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5563,10 +5575,10 @@
       <c r="I188">
         <f>((C188-C187)^2+(D188- D187)^2)^.5</f>
       </c>
-      <c r="J188" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K188" s="2" t="s">
+      <c r="J188" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K188" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L188" t="n">
@@ -5610,28 +5622,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="s" s="2">
+      <c r="A190" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B190" t="s" s="2">
+      <c r="B190" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C190" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D190" t="s" s="2">
+      <c r="C190" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D190" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E190" t="s" s="2">
+      <c r="E190" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F190" t="s" s="2">
+      <c r="F190" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G190" t="s" s="2">
+      <c r="G190" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H190" t="s" s="2">
+      <c r="H190" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5656,28 +5668,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="B192" t="s" s="2">
+      <c r="B192" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C192" t="s" s="2">
+      <c r="C192" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D192" t="s" s="2">
+      <c r="D192" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E192" t="s" s="2">
+      <c r="E192" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F192" t="s" s="2">
+      <c r="F192" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G192" t="s" s="2">
+      <c r="G192" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H192" t="s" s="2">
+      <c r="H192" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I192" t="s" s="2">
+      <c r="I192" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5736,10 +5748,10 @@
       <c r="I194">
         <f>((C194-C193)^2+(D194- D193)^2)^.5</f>
       </c>
-      <c r="J194" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K194" s="2" t="s">
+      <c r="J194" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K194" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L194" t="n">
@@ -5783,28 +5795,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="s" s="2">
+      <c r="A196" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B196" t="s" s="2">
+      <c r="B196" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C196" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D196" t="s" s="2">
+      <c r="C196" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D196" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E196" t="s" s="2">
+      <c r="E196" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F196" t="s" s="2">
+      <c r="F196" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G196" t="s" s="2">
+      <c r="G196" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H196" t="s" s="2">
+      <c r="H196" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5829,28 +5841,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="B198" t="s" s="2">
+      <c r="B198" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C198" t="s" s="2">
+      <c r="C198" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D198" t="s" s="2">
+      <c r="D198" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E198" t="s" s="2">
+      <c r="E198" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F198" t="s" s="2">
+      <c r="F198" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G198" t="s" s="2">
+      <c r="G198" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H198" t="s" s="2">
+      <c r="H198" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I198" t="s" s="2">
+      <c r="I198" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5909,10 +5921,10 @@
       <c r="I200">
         <f>((C200-C199)^2+(D200- D199)^2)^.5</f>
       </c>
-      <c r="J200" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K200" s="2" t="s">
+      <c r="J200" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K200" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L200" t="n">
@@ -5956,28 +5968,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="s" s="2">
+      <c r="A202" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B202" t="s" s="2">
+      <c r="B202" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C202" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D202" t="s" s="2">
+      <c r="C202" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D202" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E202" t="s" s="2">
+      <c r="E202" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F202" t="s" s="2">
+      <c r="F202" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G202" t="s" s="2">
+      <c r="G202" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H202" t="s" s="2">
+      <c r="H202" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6002,28 +6014,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="B204" t="s" s="2">
+      <c r="B204" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C204" t="s" s="2">
+      <c r="C204" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D204" t="s" s="2">
+      <c r="D204" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E204" t="s" s="2">
+      <c r="E204" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F204" t="s" s="2">
+      <c r="F204" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G204" t="s" s="2">
+      <c r="G204" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H204" t="s" s="2">
+      <c r="H204" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I204" t="s" s="2">
+      <c r="I204" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6082,10 +6094,10 @@
       <c r="I206">
         <f>((C206-C205)^2+(D206- D205)^2)^.5</f>
       </c>
-      <c r="J206" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K206" s="2" t="s">
+      <c r="J206" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K206" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L206" t="n">
@@ -6129,28 +6141,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="s" s="2">
+      <c r="A208" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B208" t="s" s="2">
+      <c r="B208" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C208" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D208" t="s" s="2">
+      <c r="C208" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D208" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E208" t="s" s="2">
+      <c r="E208" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F208" t="s" s="2">
+      <c r="F208" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G208" t="s" s="2">
+      <c r="G208" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H208" t="s" s="2">
+      <c r="H208" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6175,28 +6187,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="B210" t="s" s="2">
+      <c r="B210" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C210" t="s" s="2">
+      <c r="C210" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D210" t="s" s="2">
+      <c r="D210" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E210" t="s" s="2">
+      <c r="E210" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F210" t="s" s="2">
+      <c r="F210" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G210" t="s" s="2">
+      <c r="G210" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H210" t="s" s="2">
+      <c r="H210" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I210" t="s" s="2">
+      <c r="I210" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6255,10 +6267,10 @@
       <c r="I212">
         <f>((C212-C211)^2+(D212- D211)^2)^.5</f>
       </c>
-      <c r="J212" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K212" s="2" t="s">
+      <c r="J212" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K212" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L212" t="n">
@@ -6302,28 +6314,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="s" s="2">
+      <c r="A214" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B214" t="s" s="2">
+      <c r="B214" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C214" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D214" t="s" s="2">
+      <c r="C214" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D214" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E214" t="s" s="2">
+      <c r="E214" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F214" t="s" s="2">
+      <c r="F214" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G214" t="s" s="2">
+      <c r="G214" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H214" t="s" s="2">
+      <c r="H214" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6348,28 +6360,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="B216" t="s" s="2">
+      <c r="B216" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C216" t="s" s="2">
+      <c r="C216" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D216" t="s" s="2">
+      <c r="D216" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E216" t="s" s="2">
+      <c r="E216" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F216" t="s" s="2">
+      <c r="F216" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G216" t="s" s="2">
+      <c r="G216" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H216" t="s" s="2">
+      <c r="H216" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I216" t="s" s="2">
+      <c r="I216" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6428,10 +6440,10 @@
       <c r="I218">
         <f>((C218-C217)^2+(D218- D217)^2)^.5</f>
       </c>
-      <c r="J218" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K218" s="2" t="s">
+      <c r="J218" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K218" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L218" t="n">
@@ -6475,28 +6487,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="s" s="2">
+      <c r="A220" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B220" t="s" s="2">
+      <c r="B220" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C220" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D220" t="s" s="2">
+      <c r="C220" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D220" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E220" t="s" s="2">
+      <c r="E220" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F220" t="s" s="2">
+      <c r="F220" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G220" t="s" s="2">
+      <c r="G220" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H220" t="s" s="2">
+      <c r="H220" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6521,28 +6533,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="B222" t="s" s="2">
+      <c r="B222" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C222" t="s" s="2">
+      <c r="C222" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D222" t="s" s="2">
+      <c r="D222" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E222" t="s" s="2">
+      <c r="E222" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F222" t="s" s="2">
+      <c r="F222" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G222" t="s" s="2">
+      <c r="G222" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H222" t="s" s="2">
+      <c r="H222" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I222" t="s" s="2">
+      <c r="I222" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6601,10 +6613,10 @@
       <c r="I224">
         <f>((C224-C223)^2+(D224- D223)^2)^.5</f>
       </c>
-      <c r="J224" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K224" s="2" t="s">
+      <c r="J224" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K224" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L224" t="n">
@@ -6648,28 +6660,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="s" s="2">
+      <c r="A226" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B226" t="s" s="2">
+      <c r="B226" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C226" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D226" t="s" s="2">
+      <c r="C226" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D226" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E226" t="s" s="2">
+      <c r="E226" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F226" t="s" s="2">
+      <c r="F226" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G226" t="s" s="2">
+      <c r="G226" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H226" t="s" s="2">
+      <c r="H226" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6694,28 +6706,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="B228" t="s" s="2">
+      <c r="B228" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C228" t="s" s="2">
+      <c r="C228" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D228" t="s" s="2">
+      <c r="D228" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E228" t="s" s="2">
+      <c r="E228" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F228" t="s" s="2">
+      <c r="F228" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G228" t="s" s="2">
+      <c r="G228" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H228" t="s" s="2">
+      <c r="H228" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I228" t="s" s="2">
+      <c r="I228" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6774,10 +6786,10 @@
       <c r="I230">
         <f>((C230-C229)^2+(D230- D229)^2)^.5</f>
       </c>
-      <c r="J230" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K230" s="2" t="s">
+      <c r="J230" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K230" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L230" t="n">
@@ -6821,28 +6833,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="s" s="2">
+      <c r="A232" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B232" t="s" s="2">
+      <c r="B232" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C232" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D232" t="s" s="2">
+      <c r="C232" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D232" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E232" t="s" s="2">
+      <c r="E232" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F232" t="s" s="2">
+      <c r="F232" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G232" t="s" s="2">
+      <c r="G232" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H232" t="s" s="2">
+      <c r="H232" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6867,28 +6879,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="B234" t="s" s="2">
+      <c r="B234" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C234" t="s" s="2">
+      <c r="C234" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D234" t="s" s="2">
+      <c r="D234" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E234" t="s" s="2">
+      <c r="E234" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F234" t="s" s="2">
+      <c r="F234" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G234" t="s" s="2">
+      <c r="G234" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H234" t="s" s="2">
+      <c r="H234" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I234" t="s" s="2">
+      <c r="I234" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6947,10 +6959,10 @@
       <c r="I236">
         <f>((C236-C235)^2+(D236- D235)^2)^.5</f>
       </c>
-      <c r="J236" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K236" s="2" t="s">
+      <c r="J236" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K236" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L236" t="n">
